--- a/Week 5 Phase I/Peer Review Log (Phase 1).xlsx
+++ b/Week 5 Phase I/Peer Review Log (Phase 1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F681748-0D8A-49DD-AFD3-E16962E05F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A91DD368-F21F-4B5F-B3DC-A2B1C3BE37F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>Resolution(s)</t>
+  </si>
+  <si>
+    <t>B. Allton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document for grammar and flow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some sentences in part 7 not quite clear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reworded some of the paragraphs to give them better flow and more clarification as to what was done throughout the project history.  </t>
   </si>
 </sst>
 </file>
@@ -147,22 +159,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,7 +480,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="K7" sqref="K4:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,121 +493,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>43875</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
